--- a/SHARED FOLDER/NO ADMINISTRATIVE RECORD DATA.xlsx
+++ b/SHARED FOLDER/NO ADMINISTRATIVE RECORD DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14848DCD-BA7C-40B6-9CF3-7D3A2CEC0434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB18475-151F-475F-925C-229711218414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO ADMINISTRATIVE" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="227">
   <si>
     <t>Mayor's Office</t>
   </si>
@@ -701,6 +701,27 @@
   </si>
   <si>
     <t>Admin Aide VI</t>
+  </si>
+  <si>
+    <t>BAYAS</t>
+  </si>
+  <si>
+    <t>WILMA</t>
+  </si>
+  <si>
+    <t>City Civil Registrar</t>
+  </si>
+  <si>
+    <t>City Civil Registrar Office</t>
+  </si>
+  <si>
+    <t>Vice Mayor's Office detailed at Civil Security Unit</t>
+  </si>
+  <si>
+    <t>INOCENCIO</t>
+  </si>
+  <si>
+    <t>his Compulsory retirement</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1169,11 @@
   <dimension ref="A2:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="7668" ySplit="924" topLeftCell="M32" activePane="bottomRight"/>
+      <pane xSplit="7665" ySplit="930" topLeftCell="B41" activePane="bottomRight"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,7 +2152,7 @@
         <v>71</v>
       </c>
       <c r="K24" s="2">
-        <v>43101</v>
+        <v>36449</v>
       </c>
       <c r="L24" s="1">
         <v>44743</v>
@@ -3419,36 +3440,120 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4">
+        <v>44917</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" t="s">
+        <v>221</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
       <c r="H55" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>WILMA P. BAYAS</v>
+      </c>
+      <c r="I55" t="s">
+        <v>222</v>
+      </c>
+      <c r="J55" t="s">
+        <v>223</v>
+      </c>
+      <c r="K55" s="2">
+        <v>30742</v>
+      </c>
+      <c r="L55" s="1">
+        <v>40056</v>
+      </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4">
+        <v>44917</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>INOCENCIO M. ANGCAYA</v>
+      </c>
+      <c r="I56" t="s">
+        <v>178</v>
+      </c>
+      <c r="J56" t="s">
+        <v>224</v>
+      </c>
+      <c r="K56" s="2">
+        <v>36374</v>
+      </c>
+      <c r="L56" s="1">
+        <v>44406</v>
+      </c>
+      <c r="M56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="H57" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H56" s="3" t="str">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="H58" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H57" s="3" t="str">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="H59" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H58" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H59" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-    </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
       <c r="H60" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
         <v>------</v>

--- a/SHARED FOLDER/NO ADMINISTRATIVE RECORD DATA.xlsx
+++ b/SHARED FOLDER/NO ADMINISTRATIVE RECORD DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB18475-151F-475F-925C-229711218414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209EF3C-2AEB-40A7-9E1C-A1D1AEEB15E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO ADMINISTRATIVE" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="236">
   <si>
     <t>Mayor's Office</t>
   </si>
@@ -161,9 +161,6 @@
     <t>MENDOZA</t>
   </si>
   <si>
-    <t>01\25\2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">her resignation </t>
   </si>
   <si>
@@ -588,9 +585,6 @@
   </si>
   <si>
     <t>JUANITO</t>
-  </si>
-  <si>
-    <t>CSU LOBBY CITY HALL</t>
   </si>
   <si>
     <t>CAJAS</t>
@@ -722,6 +716,39 @@
   </si>
   <si>
     <t>his Compulsory retirement</t>
+  </si>
+  <si>
+    <t>FERMA</t>
+  </si>
+  <si>
+    <t>ELSA</t>
+  </si>
+  <si>
+    <t>Admin Aide IV(Clerk II)</t>
+  </si>
+  <si>
+    <t>AMELITA</t>
+  </si>
+  <si>
+    <t>Agriculturist B</t>
+  </si>
+  <si>
+    <t>City Agriculture Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretary to the Sangguniang Panlungsod detailed at City Agriculture Office </t>
+  </si>
+  <si>
+    <t>DUNGO</t>
+  </si>
+  <si>
+    <t>Ticket Checker</t>
+  </si>
+  <si>
+    <t>City Treasurer's Office</t>
+  </si>
+  <si>
+    <t>PURISIMA CORAZON</t>
   </si>
 </sst>
 </file>
@@ -821,8 +848,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:N62" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:N62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:N61" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A2:N61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N61">
+    <sortCondition ref="B2:B61"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE FILE" dataDxfId="4"/>
@@ -1166,14 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N62"/>
+  <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="7665" ySplit="930" topLeftCell="B41" activePane="bottomRight"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,8 +1211,8 @@
     <col min="6" max="6" width="28.5546875" customWidth="1"/>
     <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="8" width="48" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.5546875" customWidth="1"/>
-    <col min="10" max="10" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="21.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="21.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="34.109375" customWidth="1"/>
@@ -1195,46 +1221,46 @@
   <sheetData>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1242,83 +1268,83 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>44557</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>44221</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>JUDY ANN B. ALCANTARA</v>
+        <v>ROMEO B. MENDOZA</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2">
-        <v>42552</v>
+        <v>40026</v>
       </c>
       <c r="L3" s="1">
         <v>44409</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+      <c r="B4" s="4">
+        <v>44557</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>ROMEO B. MENDOZA</v>
+        <v>JUDY ANN B. ALCANTARA</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2">
-        <v>40026</v>
+        <v>42552</v>
       </c>
       <c r="L4" s="1">
         <v>44409</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1332,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -1351,7 +1377,7 @@
         <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K5" s="2">
         <v>34641</v>
@@ -1374,7 +1400,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -1390,7 +1416,7 @@
         <v>JUANITA  G. ANAY</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -1416,7 +1442,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1458,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1612,7 +1638,7 @@
         <v>44371</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1629,23 +1655,23 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>VICTOR V. DE SAGUN</v>
+      </c>
+      <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>VICTOR V. DE SAGUN</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>65</v>
       </c>
       <c r="K12" s="2">
         <v>28982</v>
@@ -1654,7 +1680,7 @@
         <v>44126</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1671,23 +1697,23 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>HERMINIO P. ROMILLA</v>
+      </c>
+      <c r="I13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" t="s">
         <v>70</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>HERMINIO P. ROMILLA</v>
-      </c>
-      <c r="I13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J13" t="s">
-        <v>71</v>
       </c>
       <c r="K13" s="2">
         <v>43101</v>
@@ -1710,26 +1736,26 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>GLORIA O. ENRIQUEZ</v>
+      </c>
+      <c r="I14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" t="s">
         <v>74</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>GLORIA O. ENRIQUEZ</v>
-      </c>
-      <c r="I14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J14" t="s">
-        <v>75</v>
       </c>
       <c r="K14" s="2">
         <v>43101</v>
@@ -1749,16 +1775,16 @@
         <v>44712</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
         <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -1768,7 +1794,7 @@
         <v>JESSICA M. LOZANES</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
         <v>0</v>
@@ -1780,7 +1806,7 @@
         <v>44530</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1797,29 +1823,29 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>80</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>CARLOS J. SUNIGA</v>
+      </c>
+      <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>CARLOS J. SUNIGA</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>82</v>
-      </c>
-      <c r="J16" t="s">
-        <v>83</v>
       </c>
       <c r="K16" s="2">
         <v>32325</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
         <v>24</v>
@@ -1839,10 +1865,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -1855,7 +1881,7 @@
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K17" s="2">
         <v>43101</v>
@@ -1878,26 +1904,26 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>PACITA Z. AQUINO</v>
+      </c>
+      <c r="I18" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>PACITA Z. AQUINO</v>
-      </c>
-      <c r="I18" t="s">
-        <v>91</v>
-      </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="2">
         <v>41456</v>
@@ -1923,23 +1949,23 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>APOLINAR N. COSTANTE</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
         <v>94</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>APOLINAR N. COSTANTE</v>
-      </c>
-      <c r="I19" t="s">
-        <v>178</v>
-      </c>
-      <c r="J19" t="s">
-        <v>95</v>
       </c>
       <c r="K19" s="2">
         <v>43647</v>
@@ -1965,23 +1991,23 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
         <v>96</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>97</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>REYMOND A. AMBION</v>
+      </c>
+      <c r="I20" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>REYMOND A. AMBION</v>
-      </c>
-      <c r="I20" t="s">
-        <v>99</v>
-      </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" s="2">
         <v>39264</v>
@@ -1990,7 +2016,7 @@
         <v>44743</v>
       </c>
       <c r="M20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -2001,38 +2027,38 @@
         <v>44756</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="H21" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>CONRADO H. ELMIDO</v>
+        <v>REMY M. CARMONA</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K21" s="2">
-        <v>43101</v>
+        <v>42772</v>
       </c>
       <c r="L21" s="1">
-        <v>44473</v>
+        <v>44743</v>
       </c>
       <c r="M21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2046,35 +2072,35 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="H22" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>REMY M. CARMONA</v>
+        <v>REYVIE E. QUILAO</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K22" s="2">
-        <v>42772</v>
+        <v>42552</v>
       </c>
       <c r="L22" s="1">
         <v>44743</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -2088,35 +2114,35 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="H23" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>REYVIE E. QUILAO</v>
+        <v>JULIET B. GALANG</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K23" s="2">
-        <v>42552</v>
+        <v>36449</v>
       </c>
       <c r="L23" s="1">
         <v>44743</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -2130,35 +2156,38 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="H24" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>JULIET B. GALANG</v>
+        <v>LELISA L. MENDOZA</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="K24" s="2">
-        <v>36449</v>
+        <v>36164</v>
       </c>
       <c r="L24" s="1">
         <v>44743</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2172,38 +2201,35 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>BENILDA S. HERNANDO</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>LELISA L. MENDOZA</v>
-      </c>
-      <c r="I25" t="s">
-        <v>182</v>
-      </c>
-      <c r="J25" t="s">
-        <v>117</v>
-      </c>
       <c r="K25" s="2">
-        <v>36164</v>
+        <v>42772</v>
       </c>
       <c r="L25" s="1">
         <v>44743</v>
       </c>
       <c r="M25" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2214,32 +2240,32 @@
         <v>44756</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="H26" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>BENILDA S. HERNANDO</v>
+        <v>WILLY B. OPO</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K26" s="2">
-        <v>42772</v>
+        <v>43647</v>
       </c>
       <c r="L26" s="1">
         <v>44743</v>
@@ -2256,38 +2282,38 @@
         <v>44756</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="H27" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>WILLY B. OPO</v>
+        <v>LORNA A. PARRA</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K27" s="2">
-        <v>43647</v>
+        <v>42766</v>
       </c>
       <c r="L27" s="1">
         <v>44743</v>
       </c>
       <c r="M27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2295,35 +2321,35 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>44756</v>
+        <v>44775</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="H28" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>LORNA A. PARRA</v>
+        <v>CLARO C. BATINO,</v>
       </c>
       <c r="I28" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K28" s="2">
-        <v>42766</v>
+        <v>39965</v>
       </c>
       <c r="L28" s="1">
         <v>44743</v>
@@ -2334,10 +2360,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>44775</v>
+        <v>44791</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -2346,32 +2372,32 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H29" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>CLARO C. BATINO,</v>
+        <v>CARLITO P. MANALO</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K29" s="2">
-        <v>39965</v>
+        <v>43101</v>
       </c>
       <c r="L29" s="1">
-        <v>44743</v>
+        <v>44130</v>
       </c>
       <c r="M29" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2379,7 +2405,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>44791</v>
+        <v>44795</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -2388,32 +2414,32 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="H30" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>CARLITO P. MANALO</v>
+        <v>EDMUNDO R. CASI</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K30" s="2">
-        <v>43101</v>
+        <v>34700</v>
       </c>
       <c r="L30" s="1">
-        <v>44130</v>
+        <v>44770</v>
       </c>
       <c r="M30" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2421,41 +2447,41 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>44795</v>
+        <v>44798</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H31" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>EDMUNDO R. CASI</v>
+        <v>FLOR M. CUENO</v>
       </c>
       <c r="I31" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K31" s="2">
-        <v>34700</v>
+        <v>43101</v>
       </c>
       <c r="L31" s="1">
-        <v>44770</v>
+        <v>43888</v>
       </c>
       <c r="M31" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2466,38 +2492,38 @@
         <v>44798</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="H32" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>FLOR M. CUENO</v>
+        <v>IRENEO A. ANGCAYA</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="J32" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="2">
-        <v>43101</v>
+        <v>94</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="L32" s="1">
-        <v>43888</v>
+        <v>44569</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2505,7 +2531,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>44798</v>
+        <v>44816</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -2514,32 +2540,32 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="H33" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>IRENEO A. ANGCAYA</v>
+        <v>MARIO G. SUMAGUI</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
+      </c>
+      <c r="K33" s="2">
+        <v>43647</v>
       </c>
       <c r="L33" s="1">
-        <v>44569</v>
+        <v>44584</v>
       </c>
       <c r="M33" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2556,29 +2582,29 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H34" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>MARIO G. SUMAGUI</v>
+        <v>MELENCIO M. ALMAREZ</v>
       </c>
       <c r="I34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="K34" s="2">
-        <v>43647</v>
+        <v>43101</v>
       </c>
       <c r="L34" s="1">
-        <v>44584</v>
+        <v>43803</v>
       </c>
       <c r="M34" t="s">
         <v>6</v>
@@ -2589,41 +2615,41 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>44816</v>
+        <v>44832</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H35" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>MELENCIO M. ALMAREZ</v>
+        <v>PILILLA V. AYCARDO</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="K35" s="2">
         <v>43101</v>
       </c>
       <c r="L35" s="1">
-        <v>43803</v>
+        <v>44774</v>
       </c>
       <c r="M35" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2631,41 +2657,41 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>44832</v>
+        <v>44839</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H36" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>PILILLA V. AYCARDO</v>
+        <v>GEMINIANO M. CAGUITLA</v>
       </c>
       <c r="I36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="K36" s="2">
         <v>43101</v>
       </c>
-      <c r="L36" s="1">
-        <v>44774</v>
+      <c r="L36" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2673,7 +2699,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>44839</v>
+        <v>44860</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>5</v>
@@ -2682,29 +2708,29 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="H37" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>GEMINIANO M. CAGUITLA</v>
+        <v>ANTONIO E. PEJI</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="K37" s="2">
-        <v>43101</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>157</v>
+        <v>43118</v>
+      </c>
+      <c r="L37" s="1">
+        <v>44852</v>
       </c>
       <c r="M37" t="s">
         <v>6</v>
@@ -2724,29 +2750,26 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="H38" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>ANTONIO E. PEJI</v>
+        <v>VIRGILIO FELLO</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="J38" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="K38" s="2">
         <v>43118</v>
       </c>
       <c r="L38" s="1">
-        <v>44852</v>
+        <v>44779</v>
       </c>
       <c r="M38" t="s">
         <v>6</v>
@@ -2760,35 +2783,38 @@
         <v>44860</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
       </c>
       <c r="H39" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>VIRGILIO FELLO</v>
+        <v>CRISTINA M. IGNO</v>
       </c>
       <c r="I39" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="K39" s="2">
-        <v>43118</v>
+        <v>34652</v>
       </c>
       <c r="L39" s="1">
-        <v>44779</v>
+        <v>44865</v>
       </c>
       <c r="M39" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2802,35 +2828,35 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H40" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>CRISTINA M. IGNO</v>
+        <v>CATHERINE L. NELSON</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="J40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K40" s="2">
-        <v>34652</v>
+        <v>44243</v>
       </c>
       <c r="L40" s="1">
-        <v>44865</v>
+        <v>44742</v>
       </c>
       <c r="M40" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2841,38 +2867,35 @@
         <v>44860</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="H41" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>CATHERINE L. NELSON</v>
+        <v>DANILO CANDELARIA</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J41" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="K41" s="2">
-        <v>44243</v>
+        <v>34627</v>
       </c>
       <c r="L41" s="1">
-        <v>44742</v>
+        <v>44866</v>
       </c>
       <c r="M41" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2880,38 +2903,41 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>44860</v>
+        <v>44867</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="G42" t="s">
+        <v>176</v>
       </c>
       <c r="H42" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>DANILO CANDELARIA</v>
+        <v>TERESITA D. DEL MUNDO</v>
       </c>
       <c r="I42" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K42" s="2">
-        <v>34627</v>
+        <v>34634</v>
       </c>
       <c r="L42" s="1">
-        <v>44866</v>
+        <v>44166</v>
       </c>
       <c r="M42" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2919,41 +2945,44 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>44867</v>
+        <v>44882</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="H43" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>TERESITA D. DEL MUNDO</v>
+        <v>JUANITO P. REYES</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="K43" s="2">
-        <v>34634</v>
+        <v>38019</v>
       </c>
       <c r="L43" s="1">
-        <v>44166</v>
+        <v>44800</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="N43" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2967,38 +2996,38 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="H44" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>JUANITO P. REYES</v>
+        <v>MINA H. CAJAS</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="J44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K44" s="2">
-        <v>38019</v>
+        <v>34781</v>
       </c>
       <c r="L44" s="1">
-        <v>44800</v>
+        <v>44712</v>
       </c>
       <c r="M44" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="N44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3009,41 +3038,41 @@
         <v>44882</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="H45" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>MINA H. CAJAS</v>
+        <v>MARITES R. ILUSTRISIMO</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="J45" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K45" s="2">
-        <v>34781</v>
+        <v>34619</v>
       </c>
       <c r="L45" s="1">
-        <v>44712</v>
+        <v>38092</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3051,44 +3080,44 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>44882</v>
+        <v>44886</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>MARITES R. ILUSTRISIMO</v>
+        <v>AMY LOU T. MARAÑON</v>
       </c>
       <c r="I46" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="J46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K46" s="2">
-        <v>34619</v>
+        <v>41701</v>
       </c>
       <c r="L46" s="1">
-        <v>38092</v>
+        <v>44742</v>
       </c>
       <c r="M46" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3096,44 +3125,44 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="H47" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>AMY LOU T. MARAÑON</v>
+        <v>JOLINA S. BAYBAY</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K47" s="2">
-        <v>41701</v>
+        <v>41792</v>
       </c>
       <c r="L47" s="1">
-        <v>44742</v>
+        <v>44816</v>
       </c>
       <c r="M47" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="N47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -3141,44 +3170,44 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>44887</v>
+        <v>44902</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="H48" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>JOLINA S. BAYBAY</v>
+        <v>ESTEBAN M. MENDOZA</v>
       </c>
       <c r="I48" t="s">
         <v>202</v>
       </c>
       <c r="J48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K48" s="2">
-        <v>41792</v>
+        <v>40360</v>
       </c>
       <c r="L48" s="1">
-        <v>44816</v>
+        <v>43647</v>
       </c>
       <c r="M48" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3195,35 +3224,32 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
+        <v>CONRADO H. ELMIDO</v>
+      </c>
+      <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" t="s">
         <v>203</v>
       </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>ESTEBAN M. MENDOZA</v>
-      </c>
-      <c r="I49" t="s">
-        <v>204</v>
-      </c>
-      <c r="J49" t="s">
-        <v>205</v>
-      </c>
       <c r="K49" s="2">
-        <v>40360</v>
-      </c>
-      <c r="L49" s="1">
-        <v>43647</v>
+        <v>38169</v>
+      </c>
+      <c r="L49" s="2">
+        <v>44735</v>
       </c>
       <c r="M49" t="s">
         <v>106</v>
-      </c>
-      <c r="N49" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3234,38 +3260,41 @@
         <v>44902</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="H50" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>CONRADO H. ELMIDO</v>
+        <v>BRIGIDA M. SEPINO</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="J50" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K50" s="2">
-        <v>38169</v>
-      </c>
-      <c r="L50" s="2">
-        <v>44735</v>
+        <v>42614</v>
+      </c>
+      <c r="L50" s="1">
+        <v>44855</v>
       </c>
       <c r="M50" t="s">
-        <v>107</v>
+        <v>31</v>
+      </c>
+      <c r="N50" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3273,44 +3302,44 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H51" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>BRIGIDA M. SEPINO</v>
+        <v>DINAH G. TORRES</v>
       </c>
       <c r="I51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K51" s="2">
-        <v>42614</v>
+        <v>39965</v>
       </c>
       <c r="L51" s="1">
-        <v>44855</v>
+        <v>44773</v>
       </c>
       <c r="M51" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3324,38 +3353,32 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="H52" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>DINAH G. TORRES</v>
+        <v>ESTER DEL MUNDO</v>
       </c>
       <c r="I52" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J52" t="s">
         <v>214</v>
       </c>
       <c r="K52" s="2">
-        <v>39965</v>
+        <v>29845</v>
       </c>
       <c r="L52" s="1">
-        <v>44773</v>
+        <v>44926</v>
       </c>
       <c r="M52" t="s">
-        <v>44</v>
-      </c>
-      <c r="N52" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3369,26 +3392,29 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
         <v>215</v>
       </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
       <c r="H53" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>ESTER DEL MUNDO</v>
+        <v>JUANITA M. DE CASTRO</v>
       </c>
       <c r="I53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K53" s="2">
-        <v>29845</v>
+        <v>32295</v>
       </c>
       <c r="L53" s="1">
         <v>44926</v>
@@ -3402,38 +3428,38 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>44904</v>
+        <v>44917</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="H54" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>JUANITA M. DE CASTRO</v>
+        <v>WILMA P. BAYAS</v>
       </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J54" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K54" s="2">
-        <v>32295</v>
+        <v>30742</v>
       </c>
       <c r="L54" s="1">
-        <v>44926</v>
+        <v>40056</v>
       </c>
       <c r="M54" t="s">
         <v>24</v>
@@ -3447,38 +3473,38 @@
         <v>44917</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="F55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H55" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>WILMA P. BAYAS</v>
+        <v>INOCENCIO M. ANGCAYA</v>
       </c>
       <c r="I55" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" t="s">
         <v>222</v>
       </c>
-      <c r="J55" t="s">
-        <v>223</v>
-      </c>
       <c r="K55" s="2">
-        <v>30742</v>
+        <v>36374</v>
       </c>
       <c r="L55" s="1">
-        <v>40056</v>
+        <v>44406</v>
       </c>
       <c r="M55" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3486,59 +3512,125 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="F56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H56" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>INOCENCIO M. ANGCAYA</v>
+        <v>ELSA T. REYES</v>
       </c>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="J56" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K56" s="2">
-        <v>36374</v>
+        <v>33619</v>
       </c>
       <c r="L56" s="1">
-        <v>44406</v>
+        <v>44926</v>
       </c>
       <c r="M56" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
+      <c r="B57" s="4">
+        <v>44918</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
       <c r="H57" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
+        <v>AMELITA V. FERMA</v>
+      </c>
+      <c r="I57" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" t="s">
+        <v>230</v>
+      </c>
+      <c r="K57" s="2">
+        <v>30684</v>
+      </c>
+      <c r="L57" s="1">
+        <v>44926</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
+      <c r="B58" s="4">
+        <v>44918</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" t="s">
+        <v>109</v>
+      </c>
       <c r="H58" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
+        <v>PURISIMA CORAZON E. DUNGO</v>
+      </c>
+      <c r="I58" t="s">
+        <v>233</v>
+      </c>
+      <c r="J58" t="s">
+        <v>234</v>
+      </c>
+      <c r="K58" s="2">
+        <v>41487</v>
+      </c>
+      <c r="L58" s="1">
+        <v>44926</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3551,9 +3643,6 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>58</v>
-      </c>
       <c r="H60" s="3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
         <v>------</v>
@@ -3565,15 +3654,9 @@
         <v>------</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H62" s="3" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[LASTNAME]]),"------",CONCATENATE(Table3[[#This Row],[FIRSTNAME]]," ",IF(ISBLANK(Table3[[#This Row],[MIDDLE INITIAL]]),"",Table3[[#This Row],[MIDDLE INITIAL]]&amp;". "),Table3[[#This Row],[LASTNAME]]))</f>
-        <v>------</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D62" xr:uid="{4E847C1D-91C8-4FB3-99EA-740CA4E76453}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D61" xr:uid="{4E847C1D-91C8-4FB3-99EA-740CA4E76453}">
       <formula1>"MS, MR, ATTY, DR, DRA, ENGR, HON"</formula1>
     </dataValidation>
   </dataValidations>
